--- a/Hardware/PianoCircuit-BOM.xlsx
+++ b/Hardware/PianoCircuit-BOM.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orlandohoilett/Documents/Milestones/Git/Tasks-Tutorials-Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denae\PianoCircuit\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6F0319-899B-F545-ABC0-B856698FB7B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F87504-BD20-4881-851E-8A57ADA04B7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25580" windowHeight="14540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1373" yWindow="2933" windowWidth="24227" windowHeight="10074" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -424,12 +433,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{922DCE0C-DA04-44AE-A96A-9895CD05306D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Orlando Hoilett:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is just an example to show you what information to list and how to list them.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{1AC56A01-7C17-4537-A121-F0564BFC74F9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Orlando Hoilett:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is just an example to show you what information to list and how to list them.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="87">
   <si>
     <t>BOM #</t>
   </si>
@@ -603,6 +678,93 @@
   </si>
   <si>
     <t>Design Name -- Revision Code / Designer or Organization Name</t>
+  </si>
+  <si>
+    <t>3.3M resistor</t>
+  </si>
+  <si>
+    <t>R2, R3, R13, R14, R16, R29, R30, R28, R27, R44, R43</t>
+  </si>
+  <si>
+    <t>R1, R4, R26</t>
+  </si>
+  <si>
+    <t>5V Battery</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>C1, C11, C31</t>
+  </si>
+  <si>
+    <t>C3, C4, C5, C6, C21, C22, C23, C24, C33 C34, C35, C36</t>
+  </si>
+  <si>
+    <t>C7, C8, C9</t>
+  </si>
+  <si>
+    <t>39k resistor</t>
+  </si>
+  <si>
+    <t>R10, R11, R12</t>
+  </si>
+  <si>
+    <t>33 nF capacitor</t>
+  </si>
+  <si>
+    <t>10 nF capacitor</t>
+  </si>
+  <si>
+    <t>100 nF capacitor</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>390k resistor</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>LM386M-1</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>330pF capacitor</t>
+  </si>
+  <si>
+    <t>R-TRIMM-CB10V</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>50 nF capacitor</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>250 uF capacitor</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>SPK1</t>
+  </si>
+  <si>
+    <t>OP-DUALR</t>
+  </si>
+  <si>
+    <t>OP1, OP2, OP6, OP10, OP11, OP12</t>
   </si>
 </sst>
 </file>
@@ -1314,17 +1476,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A12" sqref="A12:A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="10.35" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
@@ -1337,7 +1499,7 @@
     <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.6">
       <c r="A1" s="12" t="s">
         <v>57</v>
       </c>
@@ -1366,7 +1528,7 @@
         <v>1.1271</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="11.7" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1413,7 +1575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="11.7" x14ac:dyDescent="0.45">
       <c r="A3" s="8">
         <f>1</f>
         <v>1</v>
@@ -1463,7 +1625,7 @@
         <v>0.1391</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="11.7" x14ac:dyDescent="0.45">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1512,7 +1674,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="11.7" x14ac:dyDescent="0.45">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1559,7 +1721,7 @@
         <v>0.3982</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="2" customFormat="1" ht="11.7" x14ac:dyDescent="0.45">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1608,7 +1770,7 @@
         <v>9.0899999999999995E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="2" customFormat="1" ht="11.7" x14ac:dyDescent="0.45">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1657,7 +1819,7 @@
         <v>2.0399999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="2" customFormat="1" ht="11.7" x14ac:dyDescent="0.45">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1704,6 +1866,185 @@
       <c r="O8" s="10">
         <f>L8*N8</f>
         <v>1.8499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="11.7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <f>A11+1</f>
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="11.7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <f t="shared" ref="A13:A25" si="2">A12+1</f>
+        <v>3</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/PianoCircuit-BOM.xlsx
+++ b/Hardware/PianoCircuit-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denae\PianoCircuit\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F87504-BD20-4881-851E-8A57ADA04B7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC92D99-D41A-4EAB-99A4-B38764731742}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1373" yWindow="2933" windowWidth="24227" windowHeight="10074" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9913" yWindow="847" windowWidth="24227" windowHeight="10073" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -504,7 +504,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="129">
   <si>
     <t>BOM #</t>
   </si>
@@ -765,6 +765,204 @@
   </si>
   <si>
     <t>OP1, OP2, OP6, OP10, OP11, OP12</t>
+  </si>
+  <si>
+    <t>RNF14FTD10K0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10 kOhms </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1%, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1/4W Through Hole Resistor Axial Flame Retardant Coating, Safety Metal Film</t>
+    </r>
+  </si>
+  <si>
+    <t>RNF14FTD10K0CT-ND</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.3M Ohms </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">±5%, 1/8W Through </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hole Resistor Axial Flame Retardant Coating, Safety Metal Film</t>
+    </r>
+  </si>
+  <si>
+    <t>CF18JT3M30</t>
+  </si>
+  <si>
+    <t>CF18JT3M30CT-ND</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">39 kOhms </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 5%, 1/10W Chip Resistor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
+    </r>
+  </si>
+  <si>
+    <t>Panasonic Electronic Components</t>
+  </si>
+  <si>
+    <t>ERJ-3GEYJ393V</t>
+  </si>
+  <si>
+    <t>P39KGCT-ND</t>
+  </si>
+  <si>
+    <t>390 kOhms ±  5%, 1/10W Chip Resistor 0603(1608 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>RMCF0603JT390K</t>
+  </si>
+  <si>
+    <t>RMCF0604JT390KCT-ND</t>
+  </si>
+  <si>
+    <t>Amplifier IC 1-channel (Mono) Class AB 8-SOIC</t>
+  </si>
+  <si>
+    <t>Rochester Electronics, LLC</t>
+  </si>
+  <si>
+    <t>2156-LM386M-1-ND</t>
+  </si>
+  <si>
+    <t>10000 pF  ± 10% 16V Ceramic Capacitor X7R 0402 (1005 Metric)</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <t>CL05B103KO5NNNC</t>
+  </si>
+  <si>
+    <t>1276-1051-1-ND</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor , Y5V, 0805, 0.1UF, +80/-20%</t>
+  </si>
+  <si>
+    <t>CML0805Y5V104ZT50V</t>
+  </si>
+  <si>
+    <t>738-CML0805Y5V104ZT50VCT-ND</t>
+  </si>
+  <si>
+    <t>330PF 50V X7R 0603</t>
+  </si>
+  <si>
+    <t>CML0603X7R331KT50V</t>
+  </si>
+  <si>
+    <t>738-CML0603X7R331KT50VCT-ND</t>
+  </si>
+  <si>
+    <t>33 nF ±20% 50V Ceramic Capacitor Z5U Radial</t>
+  </si>
+  <si>
+    <t>NTE Electronics Inc</t>
+  </si>
+  <si>
+    <t>CML333M50</t>
+  </si>
+  <si>
+    <t>2368-CML333M50-ND</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>SW1, SW2, SW3</t>
+  </si>
+  <si>
+    <t>Tactile Switch SPST-NO Top Actuated Surface Mount</t>
+  </si>
+  <si>
+    <t>C&amp;K</t>
+  </si>
+  <si>
+    <t>KT11P4SM34LFS</t>
+  </si>
+  <si>
+    <t>CKN1860CT-ND</t>
+  </si>
+  <si>
+    <t>CMOS Amplifier Circuit Rail-to-Rail 8-MSOP</t>
+  </si>
+  <si>
+    <t>8-MSOP</t>
+  </si>
+  <si>
+    <t>Analog Devices Inc</t>
+  </si>
+  <si>
+    <t>AD8607ARMZ</t>
+  </si>
+  <si>
+    <t>AD8607ARMZ-ND</t>
   </si>
 </sst>
 </file>
@@ -775,7 +973,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -851,6 +1049,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -934,7 +1158,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="82">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1017,8 +1241,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1056,8 +1281,16 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="82" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="82" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="82">
+  <cellStyles count="83">
+    <cellStyle name="Currency" xfId="82" builtinId="4"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1476,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A25"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="10.35" x14ac:dyDescent="0.35"/>
@@ -1518,14 +1751,14 @@
       </c>
       <c r="M1" s="6">
         <f>SUM(M3:M77)</f>
-        <v>2.48</v>
+        <v>35.199999999999996</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O1" s="6">
         <f>SUM(O3:O77)</f>
-        <v>1.1271</v>
+        <v>520.35709999999995</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="11.7" x14ac:dyDescent="0.45">
@@ -1868,7 +2101,7 @@
         <v>1.8499999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="11.7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="11.7" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1877,6 +2110,39 @@
       </c>
       <c r="C11" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>11</v>
+      </c>
+      <c r="M11" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N11" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="O11" s="17">
+        <v>2.5</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -1890,6 +2156,39 @@
       <c r="C12" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="D12" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3</v>
+      </c>
+      <c r="M12" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="N12" s="17">
+        <v>1.83</v>
+      </c>
+      <c r="O12" s="17">
+        <v>1.83</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="11.7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
@@ -1902,6 +2201,11 @@
       <c r="C13" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
@@ -1914,6 +2218,42 @@
       <c r="C14" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="D14" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="L14" s="19">
+        <v>3</v>
+      </c>
+      <c r="M14" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="N14" s="17">
+        <v>3.38</v>
+      </c>
+      <c r="O14" s="17">
+        <v>3.38</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
@@ -1926,6 +2266,42 @@
       <c r="C15" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="L15" s="19">
+        <v>10</v>
+      </c>
+      <c r="M15" s="17">
+        <v>1</v>
+      </c>
+      <c r="N15" s="17">
+        <v>0.74</v>
+      </c>
+      <c r="O15" s="17">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
@@ -1938,8 +2314,44 @@
       <c r="C16" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="D16" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="K16" s="17">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="L16" s="19">
+        <v>3</v>
+      </c>
+      <c r="M16" s="17">
+        <v>0.48</v>
+      </c>
+      <c r="N16" s="17">
+        <v>14.94</v>
+      </c>
+      <c r="O16" s="17">
+        <v>14.94</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -1950,8 +2362,44 @@
       <c r="C17" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="L17" s="19">
+        <v>3</v>
+      </c>
+      <c r="M17" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="N17" s="17">
+        <v>1.36</v>
+      </c>
+      <c r="O17" s="17">
+        <v>1.36</v>
+      </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -1962,8 +2410,44 @@
       <c r="C18" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="D18" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="L18" s="19">
+        <v>1</v>
+      </c>
+      <c r="M18" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="N18" s="17">
+        <v>2.25</v>
+      </c>
+      <c r="O18" s="17">
+        <v>2.25</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -1974,8 +2458,44 @@
       <c r="C19" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="D19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="L19" s="19">
+        <v>1</v>
+      </c>
+      <c r="M19" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="N19" s="17">
+        <v>0.61</v>
+      </c>
+      <c r="O19" s="17">
+        <v>0.61</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -1986,8 +2506,37 @@
       <c r="C20" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="D20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="17">
+        <v>0.48</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="17">
+        <v>0.48</v>
+      </c>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -1998,8 +2547,12 @@
       <c r="C21" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="K21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -2010,8 +2563,12 @@
       <c r="C22" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="K22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -2022,8 +2579,12 @@
       <c r="C23" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="K23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -2034,8 +2595,12 @@
       <c r="C24" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="K24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -2045,6 +2610,86 @@
       </c>
       <c r="C25" s="1" t="s">
         <v>86</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K25" s="17">
+        <v>2.95</v>
+      </c>
+      <c r="L25" s="1">
+        <v>6</v>
+      </c>
+      <c r="M25" s="17">
+        <v>17.7</v>
+      </c>
+      <c r="N25" s="17">
+        <v>217.04</v>
+      </c>
+      <c r="O25" s="17">
+        <v>217.04</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="17">
+        <v>3.62</v>
+      </c>
+      <c r="L26" s="1">
+        <v>3</v>
+      </c>
+      <c r="M26" s="17">
+        <v>10.86</v>
+      </c>
+      <c r="N26" s="17">
+        <v>274.58</v>
+      </c>
+      <c r="O26" s="17">
+        <v>274.58</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/PianoCircuit-BOM.xlsx
+++ b/Hardware/PianoCircuit-BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denae\PianoCircuit\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC92D99-D41A-4EAB-99A4-B38764731742}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8069F8-3175-43CE-BF63-44801196872A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9913" yWindow="847" windowWidth="24227" windowHeight="10073" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,7 +504,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="134">
   <si>
     <t>BOM #</t>
   </si>
@@ -963,6 +963,21 @@
   </si>
   <si>
     <t>AD8607ARMZ-ND</t>
+  </si>
+  <si>
+    <t>47 nF ±10% 50V Ceramic Capacitor BX Radial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radial </t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>CK05BX473K</t>
+  </si>
+  <si>
+    <t>1001-2023-ND</t>
   </si>
 </sst>
 </file>
@@ -1711,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="133" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="10.35" x14ac:dyDescent="0.35"/>
@@ -1751,14 +1766,14 @@
       </c>
       <c r="M1" s="6">
         <f>SUM(M3:M77)</f>
-        <v>35.199999999999996</v>
+        <v>36.25</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O1" s="6">
         <f>SUM(O3:O77)</f>
-        <v>520.35709999999995</v>
+        <v>582.74710000000005</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="11.7" x14ac:dyDescent="0.45">
@@ -2563,10 +2578,42 @@
       <c r="C22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
+      <c r="D22" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K22" s="17">
+        <v>1.05</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="17">
+        <v>1.05</v>
+      </c>
+      <c r="N22" s="17">
+        <v>62.39</v>
+      </c>
+      <c r="O22" s="17">
+        <v>62.39</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="1">

--- a/Hardware/PianoCircuit-BOM.xlsx
+++ b/Hardware/PianoCircuit-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denae\PianoCircuit\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8069F8-3175-43CE-BF63-44801196872A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777852C4-20AD-4260-802F-41723F573B38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9913" yWindow="847" windowWidth="24227" windowHeight="10073" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1373" yWindow="847" windowWidth="24227" windowHeight="10073" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{4414EC97-401B-5C4D-BF38-03085F1F044A}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{922DCE0C-DA04-44AE-A96A-9895CD05306D}">
       <text>
         <r>
           <rPr>
@@ -267,206 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{42ADFC76-2A16-3F4B-9937-20E1DF8DC9D9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Orlando Hoilett:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This is just an example to show you what information to list and how to list them.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{92578C3E-17AC-CF40-B33B-C67DBD723ACA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Orlando Hoilett:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is just an example to show you what information to list and how to list them.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{B87F5F84-059E-824D-B1C3-C6D21A6C0FC3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Orlando Hoilett:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is just an example to show you what information to list and how to list them.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{8D3ED184-945A-F444-9885-2E4FC0FBB6A7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Orlando Hoilett:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is just an example to show you what information to list and how to list them.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{7F187FCD-1E21-9644-AE5D-0FA5E52F65FA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Orlando Hoilett:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is just an example to show you what information to list and how to list them.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{922DCE0C-DA04-44AE-A96A-9895CD05306D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Orlando Hoilett:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is just an example to show you what information to list and how to list them.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{1AC56A01-7C17-4537-A121-F0564BFC74F9}">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{1AC56A01-7C17-4537-A121-F0564BFC74F9}">
       <text>
         <r>
           <rPr>
@@ -504,7 +305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="110">
   <si>
     <t>BOM #</t>
   </si>
@@ -545,9 +346,6 @@
     <t>SMD</t>
   </si>
   <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -566,115 +364,19 @@
     <t>Stackpole Electronics Inc</t>
   </si>
   <si>
-    <t>1uF capacitor</t>
-  </si>
-  <si>
-    <t>LM358</t>
-  </si>
-  <si>
-    <t>Photoresistor</t>
-  </si>
-  <si>
-    <t>9V Battery Connector</t>
-  </si>
-  <si>
-    <t>1µF ±10% 25V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
-  </si>
-  <si>
-    <t>CL10A105KA8NNNC</t>
-  </si>
-  <si>
-    <t>1276-1102-1-ND</t>
-  </si>
-  <si>
     <t>Per 100</t>
   </si>
   <si>
-    <t>White  LED Indication - Discrete 2.9V Radial</t>
-  </si>
-  <si>
     <t>THT</t>
   </si>
   <si>
     <t>Radial</t>
   </si>
   <si>
-    <t>American Bright Optoelectronics Corporation</t>
-  </si>
-  <si>
-    <t>BL-BZX3V4V-1-B02</t>
-  </si>
-  <si>
-    <t>BL-BZX3V4V-1-B02-ND</t>
-  </si>
-  <si>
-    <t>White LED</t>
-  </si>
-  <si>
-    <t>Battery Connector, Snap 9V 1 Cell Wire Leads - 4" (101.6mm)</t>
-  </si>
-  <si>
-    <t>Keystone Electronics</t>
-  </si>
-  <si>
-    <t>81-4</t>
-  </si>
-  <si>
-    <t>36-81-4-ND</t>
-  </si>
-  <si>
-    <t>9V</t>
-  </si>
-  <si>
-    <t>LED1</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>General Purpose Amplifier 2 Circuit  8-SOIC</t>
-  </si>
-  <si>
     <t>8-SOIC</t>
   </si>
   <si>
-    <t>LM358DR</t>
-  </si>
-  <si>
-    <t>296-1014-1-ND</t>
-  </si>
-  <si>
-    <t>OP1</t>
-  </si>
-  <si>
     <t>Total (in Bulk)</t>
-  </si>
-  <si>
-    <t>CDS Cell 520nm 27 ~ 60kOhms @ 10 lux</t>
-  </si>
-  <si>
-    <t>Photo</t>
-  </si>
-  <si>
-    <t>Advanced Photonix</t>
-  </si>
-  <si>
-    <t>PDV-P8104</t>
-  </si>
-  <si>
-    <t>PDV-P8104-ND</t>
-  </si>
-  <si>
-    <t>10 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
-  </si>
-  <si>
-    <t>R1,R2,R3</t>
-  </si>
-  <si>
-    <t>RMCF0603FT10K0</t>
-  </si>
-  <si>
-    <t>RMCF0603FT10K0CT-ND</t>
   </si>
   <si>
     <t>Design Name -- Revision Code / Designer or Organization Name</t>
@@ -978,6 +680,33 @@
   </si>
   <si>
     <t>1001-2023-ND</t>
+  </si>
+  <si>
+    <t>Aluminum Electrolytic Capacitors - Radial Leaded 250uF 50volts -10% + 100%</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>678D257H050DM5J</t>
+  </si>
+  <si>
+    <t>Mouser Electronics</t>
+  </si>
+  <si>
+    <t>75-678D257H050DM5J</t>
+  </si>
+  <si>
+    <t>8 Ohm 300 mW top oort 92 DB Speaker</t>
+  </si>
+  <si>
+    <t>CUI Devices</t>
+  </si>
+  <si>
+    <t>CDM-20008</t>
+  </si>
+  <si>
+    <t>102-2502-ND</t>
   </si>
 </sst>
 </file>
@@ -1059,13 +788,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1090,6 +812,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1256,7 +985,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1275,18 +1004,19 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="82" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="82" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1296,13 +1026,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="82" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="82" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="83">
     <cellStyle name="Currency" xfId="82" builtinId="4"/>
@@ -1724,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="133" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="10.35" x14ac:dyDescent="0.35"/>
@@ -1748,12 +1475,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.6">
-      <c r="A1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
+      <c r="A1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -1762,18 +1489,18 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M1" s="6">
-        <f>SUM(M3:M77)</f>
-        <v>36.25</v>
+        <f>SUM(M3:M69)</f>
+        <v>46.62</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="O1" s="6">
-        <f>SUM(O3:O77)</f>
-        <v>582.74710000000005</v>
+        <f>SUM(O3:O69)</f>
+        <v>1509.55</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="11.7" x14ac:dyDescent="0.45">
@@ -1808,934 +1535,710 @@
         <v>8</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="11.7" x14ac:dyDescent="0.45">
-      <c r="A3" s="8">
-        <f>1</f>
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="10">
-        <v>0.38</v>
-      </c>
-      <c r="L3" s="11">
-        <v>1</v>
-      </c>
-      <c r="M3" s="10">
-        <f t="shared" ref="M3:M8" si="0">K3*L3</f>
-        <v>0.38</v>
-      </c>
-      <c r="N3" s="10">
-        <v>0.1391</v>
-      </c>
-      <c r="O3" s="10">
-        <f t="shared" ref="O3:O7" si="1">L3*N3</f>
-        <v>0.1391</v>
+      <c r="J3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>11</v>
+      </c>
+      <c r="M3" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N3" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="O3" s="12">
+        <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="11.7" x14ac:dyDescent="0.45">
-      <c r="A4" s="8">
+      <c r="A4" s="1">
+        <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0.89</v>
-      </c>
-      <c r="L4" s="11">
-        <v>1</v>
-      </c>
-      <c r="M4" s="10">
-        <f t="shared" si="0"/>
-        <v>0.89</v>
-      </c>
-      <c r="N4" s="10">
-        <v>0.46</v>
-      </c>
-      <c r="O4" s="10">
-        <f t="shared" si="1"/>
-        <v>0.46</v>
+      <c r="J4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="N4" s="12">
+        <v>1.83</v>
+      </c>
+      <c r="O4" s="12">
+        <v>1.83</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="11.7" x14ac:dyDescent="0.45">
-      <c r="A5" s="8">
+      <c r="A5" s="1">
+        <f t="shared" ref="A5:A17" si="0">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L5" s="11">
-        <v>1</v>
-      </c>
-      <c r="M5" s="10">
-        <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N5" s="10">
-        <v>0.3982</v>
-      </c>
-      <c r="O5" s="10">
-        <f t="shared" si="1"/>
-        <v>0.3982</v>
-      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
     </row>
     <row r="6" spans="1:15" s="2" customFormat="1" ht="11.7" x14ac:dyDescent="0.45">
-      <c r="A6" s="8">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="9" t="s">
+      <c r="D6" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="10">
-        <v>0.26</v>
-      </c>
-      <c r="L6" s="11">
-        <v>1</v>
-      </c>
-      <c r="M6" s="10">
-        <f t="shared" si="0"/>
-        <v>0.26</v>
-      </c>
-      <c r="N6" s="10">
-        <v>9.0899999999999995E-2</v>
-      </c>
-      <c r="O6" s="10">
-        <f t="shared" si="1"/>
-        <v>9.0899999999999995E-2</v>
+      <c r="J6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="L6" s="14">
+        <v>3</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="N6" s="12">
+        <v>3.38</v>
+      </c>
+      <c r="O6" s="12">
+        <v>3.38</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="2" customFormat="1" ht="11.7" x14ac:dyDescent="0.45">
-      <c r="A7" s="8">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="9" t="s">
+      <c r="H7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="10">
+      <c r="J7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="12">
         <v>0.1</v>
       </c>
-      <c r="L7" s="11">
-        <v>3</v>
-      </c>
-      <c r="M7" s="10">
-        <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="N7" s="10">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="O7" s="10">
-        <f t="shared" si="1"/>
-        <v>2.0399999999999998E-2</v>
+      <c r="L7" s="14">
+        <v>10</v>
+      </c>
+      <c r="M7" s="12">
+        <v>1</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="O7" s="12">
+        <v>0.74</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" ht="11.7" x14ac:dyDescent="0.45">
-      <c r="A8" s="8">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="L8" s="14">
+        <v>3</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="N8" s="12">
+        <v>14.94</v>
+      </c>
+      <c r="O8" s="12">
+        <v>14.94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="F9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="L9" s="14">
+        <v>3</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="N9" s="12">
+        <v>1.36</v>
+      </c>
+      <c r="O9" s="12">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="9" t="s">
+      <c r="H10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="10">
+      <c r="J10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="12">
         <v>0.1</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L10" s="14">
         <v>1</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M10" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="N10" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="O10" s="12">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="N8" s="10">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="O8" s="10">
-        <f>L8*N8</f>
-        <v>1.8499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="11.7" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>87</v>
+        <v>18</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K11" s="17">
+        <v>66</v>
+      </c>
+      <c r="K11" s="12">
         <v>0.1</v>
       </c>
-      <c r="L11" s="1">
-        <v>11</v>
-      </c>
-      <c r="M11" s="17">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N11" s="17">
-        <v>2.5</v>
-      </c>
-      <c r="O11" s="17">
-        <v>2.5</v>
+      <c r="L11" s="14">
+        <v>1</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="N11" s="12">
+        <v>0.61</v>
+      </c>
+      <c r="O11" s="12">
+        <v>0.61</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <f>A11+1</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K12" s="17">
-        <v>0.1</v>
+        <v>69</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0.48</v>
       </c>
       <c r="L12" s="1">
-        <v>3</v>
-      </c>
-      <c r="M12" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="N12" s="17">
-        <v>1.83</v>
-      </c>
-      <c r="O12" s="17">
-        <v>1.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
     </row>
-    <row r="13" spans="1:15" ht="11.7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <f t="shared" ref="A13:A25" si="2">A12+1</f>
-        <v>3</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>61</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
+        <v>45</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>108</v>
+        <v>47</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>107</v>
+        <v>20</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K14" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="L14" s="19">
-        <v>3</v>
-      </c>
-      <c r="M14" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="N14" s="17">
-        <v>3.38</v>
-      </c>
-      <c r="O14" s="17">
-        <v>3.38</v>
+        <v>100</v>
+      </c>
+      <c r="K14" s="12">
+        <v>1.05</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="12">
+        <v>1.05</v>
+      </c>
+      <c r="N14" s="12">
+        <v>62.39</v>
+      </c>
+      <c r="O14" s="12">
+        <v>62.39</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="18" t="s">
+      <c r="I15" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="J15" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K15" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="L15" s="19">
-        <v>10</v>
-      </c>
-      <c r="M15" s="17">
+      <c r="K15" s="12">
+        <v>11.12</v>
+      </c>
+      <c r="L15" s="1">
         <v>1</v>
       </c>
-      <c r="N15" s="17">
-        <v>0.74</v>
-      </c>
-      <c r="O15" s="17">
-        <v>0.74</v>
+      <c r="M15" s="12">
+        <v>11.12</v>
+      </c>
+      <c r="N15" s="12">
+        <v>834</v>
+      </c>
+      <c r="O15" s="12">
+        <v>834</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>114</v>
+        <v>51</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="K16" s="17">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="L16" s="19">
-        <v>3</v>
-      </c>
-      <c r="M16" s="17">
-        <v>0.48</v>
-      </c>
-      <c r="N16" s="17">
-        <v>14.94</v>
-      </c>
-      <c r="O16" s="17">
-        <v>14.94</v>
+      <c r="J16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="12">
+        <v>1.73</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="12">
+        <v>1.73</v>
+      </c>
+      <c r="N16" s="12">
+        <v>93.93</v>
+      </c>
+      <c r="O16" s="12">
+        <v>93.93</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>93</v>
+        <v>53</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>17</v>
+      <c r="F17" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K17" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="L17" s="19">
-        <v>3</v>
-      </c>
-      <c r="M17" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="N17" s="17">
-        <v>1.36</v>
-      </c>
-      <c r="O17" s="17">
-        <v>1.36</v>
+        <v>95</v>
+      </c>
+      <c r="K17" s="12">
+        <v>2.95</v>
+      </c>
+      <c r="L17" s="1">
+        <v>6</v>
+      </c>
+      <c r="M17" s="12">
+        <v>17.7</v>
+      </c>
+      <c r="N17" s="12">
+        <v>217.04</v>
+      </c>
+      <c r="O17" s="12">
+        <v>217.04</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>111</v>
+        <v>86</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="18" t="s">
-        <v>17</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>112</v>
+        <v>88</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K18" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="L18" s="19">
-        <v>1</v>
-      </c>
-      <c r="M18" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="N18" s="17">
-        <v>2.25</v>
-      </c>
-      <c r="O18" s="17">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K19" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="L19" s="19">
-        <v>1</v>
-      </c>
-      <c r="M19" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="N19" s="17">
-        <v>0.61</v>
-      </c>
-      <c r="O19" s="17">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K20" s="17">
-        <v>0.48</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1</v>
-      </c>
-      <c r="M20" s="17">
-        <v>0.48</v>
-      </c>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K22" s="17">
-        <v>1.05</v>
-      </c>
-      <c r="L22" s="1">
-        <v>1</v>
-      </c>
-      <c r="M22" s="17">
-        <v>1.05</v>
-      </c>
-      <c r="N22" s="17">
-        <v>62.39</v>
-      </c>
-      <c r="O22" s="17">
-        <v>62.39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K25" s="17">
-        <v>2.95</v>
-      </c>
-      <c r="L25" s="1">
-        <v>6</v>
-      </c>
-      <c r="M25" s="17">
-        <v>17.7</v>
-      </c>
-      <c r="N25" s="17">
-        <v>217.04</v>
-      </c>
-      <c r="O25" s="17">
-        <v>217.04</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>16</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="K26" s="17">
+      <c r="J18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" s="12">
         <v>3.62</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L18" s="1">
         <v>3</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M18" s="12">
         <v>10.86</v>
       </c>
-      <c r="N26" s="17">
+      <c r="N18" s="12">
         <v>274.58</v>
       </c>
-      <c r="O26" s="17">
+      <c r="O18" s="12">
         <v>274.58</v>
       </c>
     </row>
